--- a/src/test/java/com/pack/testData/Assignments.xlsx
+++ b/src/test/java/com/pack/testData/Assignments.xlsx
@@ -704,7 +704,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>647575</v>
+        <v>647585</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>74</v>
@@ -731,12 +731,12 @@
         <v>14</v>
       </c>
       <c r="K2" s="0">
-        <v>647575</v>
+        <v>647585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>547673</v>
+        <v>547675</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
@@ -766,12 +766,12 @@
         <v>19</v>
       </c>
       <c r="K3">
-        <v>547673</v>
+        <v>547675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>497675</v>
+        <v>498675</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>72</v>

--- a/src/test/java/com/pack/testData/Assignments.xlsx
+++ b/src/test/java/com/pack/testData/Assignments.xlsx
@@ -657,7 +657,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A2">
-      <selection sqref="K2" activeCell="K2" activeCellId="0"/>
+      <selection sqref="A6" activeCell="A6" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -704,7 +704,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>647585</v>
+        <v>586585</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>74</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>547675</v>
+        <v>586675</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>498675</v>
+        <v>586675</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>72</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>876540</v>
+        <v>586540</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>73</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>876551</v>
+        <v>586551</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>75</v>

--- a/src/test/java/com/pack/testData/Assignments.xlsx
+++ b/src/test/java/com/pack/testData/Assignments.xlsx
@@ -657,7 +657,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A2">
-      <selection sqref="A6" activeCell="A6" activeCellId="0"/>
+      <selection sqref="K4" activeCell="K4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -704,7 +704,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>586585</v>
+        <v>586587</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>74</v>
@@ -730,13 +730,13 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="0">
-        <v>647585</v>
+      <c r="K2" s="1">
+        <v>586587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>586675</v>
+        <v>586686</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
@@ -765,13 +765,13 @@
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3">
-        <v>547675</v>
+      <c r="K3" s="1">
+        <v>586686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>586675</v>
+        <v>586677</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>72</v>
@@ -797,8 +797,8 @@
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4">
-        <v>497675</v>
+      <c r="K4" s="1">
+        <v>586677</v>
       </c>
     </row>
     <row r="5">
@@ -829,8 +829,8 @@
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5">
-        <v>876540</v>
+      <c r="K5" s="1">
+        <v>586540</v>
       </c>
     </row>
     <row r="6">
@@ -861,8 +861,8 @@
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6">
-        <v>876551</v>
+      <c r="K6" s="1">
+        <v>586551</v>
       </c>
     </row>
     <row r="7">
@@ -893,7 +893,7 @@
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>876563</v>
       </c>
     </row>
@@ -925,7 +925,7 @@
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>876597</v>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>987158</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>987450</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>387650</v>
       </c>
     </row>
